--- a/Databank.xlsx
+++ b/Databank.xlsx
@@ -4478,110 +4478,152 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>De Havilland</t>
+          <t>Embraer</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Comet 1</t>
+          <t>Embraer 190</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1952</v>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+        <v>2004</v>
+      </c>
+      <c r="E52" t="n">
+        <v>51843.125</v>
+      </c>
+      <c r="F52" t="n">
+        <v>44140.625</v>
+      </c>
       <c r="G52" t="n">
-        <v>44</v>
-      </c>
-      <c r="H52" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="H52" t="n">
+        <v>16347.75</v>
+      </c>
       <c r="I52" t="n">
-        <v>28.9</v>
+        <v>16.77016917536357</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1956844519784796</v>
+        <v>0.3392881252903102</v>
       </c>
       <c r="K52" t="n">
-        <v>8.624957727272728</v>
+        <v>1.712372106412916</v>
       </c>
       <c r="L52" t="n">
-        <v>721.5909090909091</v>
-      </c>
-      <c r="M52" t="n">
-        <v>13.03220058392828</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+        <v>226.7204301075269</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>9.754665681149657</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.04141733060561711</v>
+      </c>
+      <c r="P52" t="n">
+        <v>30.545</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.7117598908588553</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.4763098239510975</v>
+      </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
+      <c r="W52" t="n">
+        <v>99</v>
+      </c>
+      <c r="X52" t="n">
+        <v>10.605</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>7.026875</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>61088.37579710694</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>De Havilland</t>
+          <t>Embraer</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Comet 4</t>
+          <t>Embraer-135</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1958</v>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+        <v>1999</v>
+      </c>
+      <c r="E53" t="n">
+        <v>21096</v>
+      </c>
+      <c r="F53" t="n">
+        <v>15840</v>
+      </c>
       <c r="G53" t="n">
-        <v>109</v>
-      </c>
-      <c r="H53" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="H53" t="n">
+        <v>8216.799999999999</v>
+      </c>
       <c r="I53" t="n">
-        <v>26.4</v>
+        <v>18.16621531661354</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2142151765976538</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3.451363636363636</v>
-      </c>
+        <v>0.3113135990720869</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>313.8715596330275</v>
-      </c>
-      <c r="M53" t="n">
-        <v>12.94289328120862</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+        <v>339.1891891891892</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>7.846846424384525</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.05070665796303604</v>
+      </c>
+      <c r="P53" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.5827229105762763</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.5342456021720363</v>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
+      <c r="W53" t="n">
+        <v>37</v>
+      </c>
+      <c r="X53" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>4.762</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>49755.49877845949</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4591,7 +4633,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Embraer 190</t>
+          <t>Embraer-140</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4600,74 +4642,44 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E54" t="n">
-        <v>51843.125</v>
-      </c>
-      <c r="F54" t="n">
-        <v>44140.625</v>
-      </c>
+        <v>2001</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>124</v>
-      </c>
-      <c r="H54" t="n">
-        <v>16347.75</v>
-      </c>
-      <c r="I54" t="n">
-        <v>16.77016917536357</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.3392881252903102</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1.712372106412916</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>226.7204301075269</v>
+        <v>268.1818181818182</v>
       </c>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
-        <v>9.754665681149657</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0.04141733060561711</v>
-      </c>
-      <c r="P54" t="n">
-        <v>30.545</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.7117598908588553</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0.4763098239510975</v>
-      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="n">
-        <v>99</v>
-      </c>
-      <c r="X54" t="n">
-        <v>10.605</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>7.026875</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>61088.37579710694</v>
-      </c>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Embraer</t>
+          <t xml:space="preserve">Embraer </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Embraer-135</t>
+          <t>EMB-120 Brasilia</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4676,72 +4688,44 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E55" t="n">
-        <v>21096</v>
-      </c>
-      <c r="F55" t="n">
-        <v>15840</v>
-      </c>
+        <v>1985</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>37</v>
-      </c>
-      <c r="H55" t="n">
-        <v>8216.799999999999</v>
-      </c>
-      <c r="I55" t="n">
-        <v>18.16621531661354</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.3113135990720869</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>339.1891891891892</v>
+        <v>252</v>
       </c>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
-        <v>7.846846424384525</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0.05070665796303604</v>
-      </c>
-      <c r="P55" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.5827229105762763</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0.5342456021720363</v>
-      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
-      <c r="W55" t="n">
-        <v>37</v>
-      </c>
-      <c r="X55" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>4.762</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>49755.49877845949</v>
-      </c>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Embraer</t>
+          <t xml:space="preserve">Embraer </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Embraer-140</t>
+          <t>Embraer ERJ-175</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4750,34 +4734,64 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+        <v>2005</v>
+      </c>
+      <c r="E56" t="n">
+        <v>37500</v>
+      </c>
+      <c r="F56" t="n">
+        <v>31700</v>
+      </c>
       <c r="G56" t="n">
-        <v>44</v>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>88</v>
+      </c>
+      <c r="H56" t="n">
+        <v>11625</v>
+      </c>
+      <c r="I56" t="n">
+        <v>18.19340342917936</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3108455349745253</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.528589461364119</v>
+      </c>
       <c r="L56" t="n">
-        <v>268.1818181818182</v>
+        <v>247.8409090909091</v>
       </c>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>11.28743811881188</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.03525045750342684</v>
+      </c>
+      <c r="P56" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.7270491548603031</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.4275455547427663</v>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
+      <c r="W56" t="n">
+        <v>75</v>
+      </c>
+      <c r="X56" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>37180.61653102213</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4787,7 +4801,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EMB-120 Brasilia</t>
+          <t>Embraer-145</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4796,44 +4810,74 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1985</v>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+        <v>1996</v>
+      </c>
+      <c r="E57" t="n">
+        <v>20016.66666666667</v>
+      </c>
+      <c r="F57" t="n">
+        <v>17333.33333333333</v>
+      </c>
       <c r="G57" t="n">
-        <v>30</v>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5528</v>
+      </c>
+      <c r="I57" t="n">
+        <v>18.22195069609804</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.3103601476304506</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.103581856805667</v>
+      </c>
       <c r="L57" t="n">
-        <v>252</v>
+        <v>244.1333333333333</v>
       </c>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>7.975146541617818</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.04995164617426398</v>
+      </c>
+      <c r="P57" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.6081109382651159</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.5103718988149327</v>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
+      <c r="W57" t="n">
+        <v>50</v>
+      </c>
+      <c r="X57" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>4.837777777777777</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>44777.31705387121</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Embraer </t>
+          <t xml:space="preserve">Fokker </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Embraer ERJ-175</t>
+          <t>Fokker 100</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4842,74 +4886,44 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E58" t="n">
-        <v>37500</v>
-      </c>
-      <c r="F58" t="n">
-        <v>31700</v>
-      </c>
+        <v>1988</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
-        <v>88</v>
-      </c>
-      <c r="H58" t="n">
-        <v>11625</v>
-      </c>
-      <c r="I58" t="n">
-        <v>18.19340342917936</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.3108455349745253</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1.528589461364119</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>247.8409090909091</v>
+        <v>202.3142076502733</v>
       </c>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
-        <v>11.28743811881188</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0.03525045750342684</v>
-      </c>
-      <c r="P58" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0.7270491548603031</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0.4275455547427663</v>
-      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="n">
-        <v>75</v>
-      </c>
-      <c r="X58" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>37180.61653102213</v>
-      </c>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Embraer </t>
+          <t xml:space="preserve">Gates Learjet </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Embraer-145</t>
+          <t>Lear-31/35/36</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4918,138 +4932,134 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E59" t="n">
-        <v>20016.66666666667</v>
-      </c>
-      <c r="F59" t="n">
-        <v>17333.33333333333</v>
-      </c>
-      <c r="G59" t="n">
-        <v>50</v>
-      </c>
-      <c r="H59" t="n">
-        <v>5528</v>
-      </c>
-      <c r="I59" t="n">
-        <v>18.22195069609804</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.3103601476304506</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2.103581856805667</v>
-      </c>
-      <c r="L59" t="n">
-        <v>244.1333333333333</v>
-      </c>
+        <v>1974</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
-        <v>7.975146541617818</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0.04995164617426398</v>
-      </c>
-      <c r="P59" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0.6081109382651159</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0.5103718988149327</v>
-      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="n">
-        <v>50</v>
-      </c>
-      <c r="X59" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>4.837777777777777</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>44777.31705387121</v>
-      </c>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fokker </t>
+          <t>Lockheed</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fokker 100</t>
+          <t>L1011-1/100/200</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+        <v>1973</v>
+      </c>
+      <c r="E60" t="n">
+        <v>224982</v>
+      </c>
+      <c r="F60" t="n">
+        <v>153314</v>
+      </c>
       <c r="G60" t="n">
-        <v>122</v>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>400</v>
+      </c>
+      <c r="H60" t="n">
+        <v>120705</v>
+      </c>
+      <c r="I60" t="n">
+        <v>17.5682</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.3219043875967976</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.69015679246197</v>
+      </c>
       <c r="L60" t="n">
-        <v>202.3142076502733</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>277.7625</v>
+      </c>
+      <c r="M60" t="n">
+        <v>14.3153</v>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>0.7611246338515383</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.4229325570082481</v>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="W60" t="n">
+        <v>314</v>
+      </c>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
+      <c r="Y60" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>163349.5957069433</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gates Learjet </t>
+          <t xml:space="preserve">Lockheed </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Lear-31/35/36</t>
+          <t>L1011-500</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1974</v>
+        <v>1979</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>330</v>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1.8209</v>
+      </c>
+      <c r="L61" t="n">
+        <v>330.0757575757576</v>
+      </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -5068,12 +5078,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Lockheed</t>
+          <t>McDonnell Douglas</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>L1011-1/100/200</t>
+          <t>DC10-30</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5082,68 +5092,56 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1973</v>
-      </c>
-      <c r="E62" t="n">
-        <v>224982</v>
-      </c>
-      <c r="F62" t="n">
-        <v>153314</v>
-      </c>
+        <v>1972</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>400</v>
-      </c>
-      <c r="H62" t="n">
-        <v>120705</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>17.5682</v>
+        <v>17.7708</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3219043875967976</v>
+        <v>0.3182344442668905</v>
       </c>
       <c r="K62" t="n">
-        <v>1.69015679246197</v>
+        <v>1.803152741832779</v>
       </c>
       <c r="L62" t="n">
-        <v>277.7625</v>
+        <v>318.9342105263158</v>
       </c>
       <c r="M62" t="n">
-        <v>14.3153</v>
+        <v>15.2348</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="n">
-        <v>0.7611246338515383</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0.4229325570082481</v>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="n">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="n">
-        <v>4.54</v>
-      </c>
+      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="n">
-        <v>163349.5957069433</v>
+        <v>176259.1642868837</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lockheed </t>
+          <t>McDonnell Douglas</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>L1011-500</t>
+          <t>DC10-40</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -5152,36 +5150,58 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1979</v>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+        <v>1972</v>
+      </c>
+      <c r="E63" t="n">
+        <v>256280</v>
+      </c>
+      <c r="F63" t="n">
+        <v>177355</v>
+      </c>
       <c r="G63" t="n">
-        <v>330</v>
-      </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>380</v>
+      </c>
+      <c r="H63" t="n">
+        <v>137520</v>
+      </c>
+      <c r="I63" t="n">
+        <v>17.4331</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.3243990261157257</v>
+      </c>
       <c r="K63" t="n">
-        <v>1.8209</v>
+        <v>1.815799269772046</v>
       </c>
       <c r="L63" t="n">
-        <v>330.0757575757576</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>323.5526315789473</v>
+      </c>
+      <c r="M63" t="n">
+        <v>13.9129</v>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>0.7498489997700178</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.4326919339257812</v>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+      <c r="W63" t="n">
+        <v>292</v>
+      </c>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
+      <c r="Y63" t="n">
+        <v>4.961538461538462</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>176295.7276686124</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5191,41 +5211,49 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DC10-30</t>
+          <t>DC9-30</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1972</v>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+        <v>1966</v>
+      </c>
+      <c r="E64" t="n">
+        <v>47627</v>
+      </c>
+      <c r="F64" t="n">
+        <v>39463</v>
+      </c>
       <c r="G64" t="n">
-        <v>380</v>
-      </c>
-      <c r="H64" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="H64" t="n">
+        <v>13926</v>
+      </c>
       <c r="I64" t="n">
-        <v>17.7708</v>
+        <v>22.4331</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3182344442668905</v>
+        <v>0.2520953707770241</v>
       </c>
       <c r="K64" t="n">
-        <v>1.803152741832779</v>
+        <v>2.396593879999583</v>
       </c>
       <c r="L64" t="n">
-        <v>318.9342105263158</v>
+        <v>203.0629921259843</v>
       </c>
       <c r="M64" t="n">
-        <v>15.2348</v>
+        <v>13.798</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
+      <c r="P64" t="n">
+        <v>28.44</v>
+      </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
@@ -5233,12 +5261,16 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="n">
-        <v>266</v>
-      </c>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="X64" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.038181818181818</v>
+      </c>
       <c r="Z64" t="n">
-        <v>176259.1642868837</v>
+        <v>50239.33056833609</v>
       </c>
     </row>
     <row r="65">
@@ -5249,67 +5281,61 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DC10-40</t>
+          <t>DC9-40</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="E65" t="n">
-        <v>256280</v>
+        <v>51710</v>
       </c>
       <c r="F65" t="n">
-        <v>177355</v>
+        <v>42184</v>
       </c>
       <c r="G65" t="n">
-        <v>380</v>
+        <v>128</v>
       </c>
       <c r="H65" t="n">
-        <v>137520</v>
+        <v>13926</v>
       </c>
       <c r="I65" t="n">
-        <v>17.4331</v>
+        <v>22.98764963035378</v>
       </c>
       <c r="J65" t="n">
-        <v>0.3243990261157257</v>
+        <v>0.2460964991804533</v>
       </c>
       <c r="K65" t="n">
-        <v>1.815799269772046</v>
+        <v>2.0777</v>
       </c>
       <c r="L65" t="n">
-        <v>323.5526315789473</v>
-      </c>
-      <c r="M65" t="n">
-        <v>13.9129</v>
-      </c>
+        <v>217.3515625</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="n">
-        <v>0.7498489997700178</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0.4326919339257812</v>
-      </c>
+      <c r="P65" t="n">
+        <v>28.44</v>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="n">
-        <v>292</v>
-      </c>
-      <c r="X65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="n">
+        <v>8.5</v>
+      </c>
       <c r="Y65" t="n">
-        <v>4.961538461538462</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>176295.7276686124</v>
-      </c>
+        <v>1.036428571428571</v>
+      </c>
+      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5319,7 +5345,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DC9-30</t>
+          <t>DC9-50</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -5328,39 +5354,37 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1966</v>
+        <v>1976</v>
       </c>
       <c r="E66" t="n">
-        <v>47627</v>
+        <v>54885</v>
       </c>
       <c r="F66" t="n">
-        <v>39463</v>
+        <v>44679</v>
       </c>
       <c r="G66" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H66" t="n">
         <v>13926</v>
       </c>
       <c r="I66" t="n">
-        <v>22.4331</v>
+        <v>23.15547775838727</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2520953707770241</v>
+        <v>0.2443182490108967</v>
       </c>
       <c r="K66" t="n">
-        <v>2.396593879999583</v>
+        <v>2.1014</v>
       </c>
       <c r="L66" t="n">
-        <v>203.0629921259843</v>
-      </c>
-      <c r="M66" t="n">
-        <v>13.798</v>
-      </c>
+        <v>211.0503597122302</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>28.44</v>
+        <v>28.45</v>
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -5368,18 +5392,14 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="n">
-        <v>100</v>
-      </c>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.038181818181818</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>50239.33056833609</v>
-      </c>
+        <v>1.04375</v>
+      </c>
+      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5389,7 +5409,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DC9-40</t>
+          <t>MD-90</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -5398,52 +5418,62 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1968</v>
+        <v>1995</v>
       </c>
       <c r="E67" t="n">
-        <v>51710</v>
+        <v>70760</v>
       </c>
       <c r="F67" t="n">
-        <v>42184</v>
+        <v>58967</v>
       </c>
       <c r="G67" t="n">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H67" t="n">
-        <v>13926</v>
+        <v>22104</v>
       </c>
       <c r="I67" t="n">
-        <v>22.98764963035378</v>
+        <v>16.99770822716683</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2460964991804533</v>
+        <v>0.3327206303053079</v>
       </c>
       <c r="K67" t="n">
-        <v>2.0777</v>
+        <v>1.340189934684793</v>
       </c>
       <c r="L67" t="n">
-        <v>217.3515625</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>242.5489021956088</v>
+      </c>
+      <c r="M67" t="n">
+        <v>12.54450404243209</v>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>28.44</v>
-      </c>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+        <v>32.87</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.7458748318947507</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.4460862698857084</v>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
+      <c r="W67" t="n">
+        <v>148</v>
+      </c>
       <c r="X67" t="n">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.036428571428571</v>
-      </c>
-      <c r="Z67" t="inlineStr"/>
+        <v>4.74</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>63894.06446530207</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5453,7 +5483,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DC9-50</t>
+          <t>MD80/DC9-80</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -5462,136 +5492,138 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="E68" t="n">
-        <v>54885</v>
+        <v>66170.71428571429</v>
       </c>
       <c r="F68" t="n">
-        <v>44679</v>
+        <v>54258.33333333334</v>
       </c>
       <c r="G68" t="n">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="H68" t="n">
-        <v>13926</v>
+        <v>22128.57142857143</v>
       </c>
       <c r="I68" t="n">
-        <v>23.15547775838727</v>
+        <v>20.744</v>
       </c>
       <c r="J68" t="n">
-        <v>0.2443182490108967</v>
+        <v>0.2726224769657761</v>
       </c>
       <c r="K68" t="n">
-        <v>2.1014</v>
+        <v>1.654110373626076</v>
       </c>
       <c r="L68" t="n">
-        <v>211.0503597122302</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+        <v>201.4290697674419</v>
+      </c>
+      <c r="M68" t="n">
+        <v>13.9129</v>
+      </c>
+      <c r="N68" t="n">
+        <v>9.609283170080145</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.04140655974928667</v>
+      </c>
       <c r="P68" t="n">
-        <v>28.45</v>
+        <v>32.85</v>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>0.4818759914491247</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.04330909613574976</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.009614788308106073</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.03369430782764369</v>
+      </c>
+      <c r="W68" t="n">
+        <v>144</v>
+      </c>
       <c r="X68" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.04375</v>
-      </c>
-      <c r="Z68" t="inlineStr"/>
+        <v>1.725714285714286</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>58284.64332602391</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t xml:space="preserve">McDonnell Douglas </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MD-90</t>
+          <t>DC10-10</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E69" t="n">
-        <v>70760</v>
-      </c>
-      <c r="F69" t="n">
-        <v>58967</v>
-      </c>
+        <v>1970</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>167</v>
-      </c>
-      <c r="H69" t="n">
-        <v>22104</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>16.99770822716683</v>
+        <v>17.0953</v>
       </c>
       <c r="J69" t="n">
-        <v>0.3327206303053079</v>
+        <v>0.3308090915150982</v>
       </c>
       <c r="K69" t="n">
-        <v>1.340189934684793</v>
+        <v>1.665838405572881</v>
       </c>
       <c r="L69" t="n">
-        <v>242.5489021956088</v>
+        <v>286.6842105263158</v>
       </c>
       <c r="M69" t="n">
-        <v>12.54450404243209</v>
+        <v>14.2003</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
-      <c r="P69" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0.7458748318947507</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0.4460862698857084</v>
-      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="n">
-        <v>148</v>
-      </c>
-      <c r="X69" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>4.74</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="n">
-        <v>63894.06446530207</v>
+        <v>169567.8746222493</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t xml:space="preserve">McDonnell Douglas </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MD80/DC9-80</t>
+          <t>DC9-10</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -5600,70 +5632,52 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1980</v>
+        <v>1965</v>
       </c>
       <c r="E70" t="n">
-        <v>66170.71428571429</v>
+        <v>41141</v>
       </c>
       <c r="F70" t="n">
-        <v>54258.33333333334</v>
+        <v>33566</v>
       </c>
       <c r="G70" t="n">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="H70" t="n">
-        <v>22128.57142857143</v>
+        <v>13979</v>
       </c>
       <c r="I70" t="n">
-        <v>20.744</v>
+        <v>22.88492472710245</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2726224769657761</v>
+        <v>0.2472409829726473</v>
       </c>
       <c r="K70" t="n">
-        <v>1.654110373626076</v>
+        <v>2.9899</v>
       </c>
       <c r="L70" t="n">
-        <v>201.4290697674419</v>
-      </c>
-      <c r="M70" t="n">
-        <v>13.9129</v>
-      </c>
-      <c r="N70" t="n">
-        <v>9.609283170080145</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0.04140655974928667</v>
-      </c>
+        <v>204.5871559633028</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
-        <v>32.85</v>
+        <v>27.25</v>
       </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
-        <v>0.4818759914491247</v>
-      </c>
-      <c r="T70" t="n">
-        <v>0.04330909613574976</v>
-      </c>
-      <c r="U70" t="n">
-        <v>0.009614788308106073</v>
-      </c>
-      <c r="V70" t="n">
-        <v>0.03369430782764369</v>
-      </c>
-      <c r="W70" t="n">
-        <v>144</v>
-      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.725714285714286</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>58284.64332602391</v>
-      </c>
+        <v>1.032222222222222</v>
+      </c>
+      <c r="Z70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5673,7 +5687,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DC10-10</t>
+          <t>MD-11</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5682,96 +5696,94 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1970</v>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+        <v>1990</v>
+      </c>
+      <c r="E71" t="n">
+        <v>276691</v>
+      </c>
+      <c r="F71" t="n">
+        <v>195045</v>
+      </c>
       <c r="G71" t="n">
-        <v>380</v>
-      </c>
-      <c r="H71" t="inlineStr"/>
+        <v>410</v>
+      </c>
+      <c r="H71" t="n">
+        <v>144782</v>
+      </c>
       <c r="I71" t="n">
-        <v>17.0953</v>
+        <v>17.17456583460847</v>
       </c>
       <c r="J71" t="n">
-        <v>0.3308090915150982</v>
+        <v>0.329294025279972</v>
       </c>
       <c r="K71" t="n">
-        <v>1.665838405572881</v>
+        <v>1.744608638314735</v>
       </c>
       <c r="L71" t="n">
-        <v>286.6842105263158</v>
+        <v>317.4756097560976</v>
       </c>
       <c r="M71" t="n">
-        <v>14.2003</v>
+        <v>17.18295849059495</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
+      <c r="Q71" t="n">
+        <v>0.7918255422774546</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.4158827258454688</v>
+      </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="n">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
+      <c r="Y71" t="n">
+        <v>4.8</v>
+      </c>
       <c r="Z71" t="n">
-        <v>169567.8746222493</v>
+        <v>160911.0912490309</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">McDonnell Douglas </t>
+          <t xml:space="preserve">Saab-Fairchild </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DC9-10</t>
+          <t>340/B</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1965</v>
-      </c>
-      <c r="E72" t="n">
-        <v>41141</v>
-      </c>
-      <c r="F72" t="n">
-        <v>33566</v>
-      </c>
+        <v>1984</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>109</v>
-      </c>
-      <c r="H72" t="n">
-        <v>13979</v>
-      </c>
-      <c r="I72" t="n">
-        <v>22.88492472710245</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.2472409829726473</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2.9899</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>204.5871559633028</v>
+        <v>241.9117647058823</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
-      <c r="P72" t="n">
-        <v>27.25</v>
-      </c>
+      <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
@@ -5779,116 +5791,104 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
-      <c r="X72" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>1.032222222222222</v>
-      </c>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">McDonnell Douglas </t>
+          <t>de Havilland</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MD-11</t>
+          <t>Comet 1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E73" t="n">
-        <v>276691</v>
-      </c>
-      <c r="F73" t="n">
-        <v>195045</v>
-      </c>
+        <v>1952</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>410</v>
-      </c>
-      <c r="H73" t="n">
-        <v>144782</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>17.17456583460847</v>
+        <v>28.9</v>
       </c>
       <c r="J73" t="n">
-        <v>0.329294025279972</v>
+        <v>0.1956844519784796</v>
       </c>
       <c r="K73" t="n">
-        <v>1.744608638314735</v>
+        <v>8.624957727272728</v>
       </c>
       <c r="L73" t="n">
-        <v>317.4756097560976</v>
+        <v>721.5909090909091</v>
       </c>
       <c r="M73" t="n">
-        <v>17.18295849059495</v>
+        <v>13.03220058392828</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="n">
-        <v>0.7918255422774546</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0.4158827258454688</v>
-      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="n">
-        <v>254</v>
-      </c>
+      <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>160911.0912490309</v>
-      </c>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saab-Fairchild </t>
+          <t>de Havilland</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>340/B</t>
+          <t>Comet 4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1984</v>
+        <v>1958</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.2142151765976538</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3.451363636363636</v>
+      </c>
       <c r="L74" t="n">
-        <v>241.9117647058823</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>313.8715596330275</v>
+      </c>
+      <c r="M74" t="n">
+        <v>12.94289328120862</v>
+      </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>

--- a/Databank.xlsx
+++ b/Databank.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -672,7 +672,7 @@
         <v>15.44949722869756</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3660566742484825</v>
+        <v>0.3660566742484824</v>
       </c>
       <c r="K3" t="n">
         <v>1.375286583998318</v>
@@ -681,7 +681,7 @@
         <v>316.7033997655334</v>
       </c>
       <c r="M3" t="n">
-        <v>18.86992414157695</v>
+        <v>18.86992414157696</v>
       </c>
       <c r="N3" t="n">
         <v>7.526701183431951</v>
@@ -698,13 +698,13 @@
         <v>0.579872351735697</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03073058057489463</v>
+        <v>0.03073058057489462</v>
       </c>
       <c r="U3" t="n">
         <v>0.01777543632879936</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01295514424609528</v>
+        <v>0.01295514424609526</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
@@ -750,7 +750,7 @@
         <v>16.98448384262995</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3330282229658988</v>
+        <v>0.3330282229658986</v>
       </c>
       <c r="K4" t="n">
         <v>1.201876678066041</v>
@@ -759,7 +759,7 @@
         <v>216.9230769230769</v>
       </c>
       <c r="M4" t="n">
-        <v>13.86975728148907</v>
+        <v>13.86975728148908</v>
       </c>
       <c r="N4" t="n">
         <v>10.47091503267974</v>
@@ -771,10 +771,10 @@
         <v>35.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7833748259464463</v>
+        <v>0.7833748259464465</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4251951342033907</v>
+        <v>0.4251951342033906</v>
       </c>
       <c r="S4" t="n">
         <v>0.5117146212062872</v>
@@ -786,7 +786,7 @@
         <v>0.009950185041419854</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02695082003825436</v>
+        <v>0.02695082003825435</v>
       </c>
       <c r="W4" t="n">
         <v>157</v>
@@ -798,7 +798,7 @@
         <v>5.694166666666667</v>
       </c>
       <c r="Z4" t="n">
-        <v>58189.47949994061</v>
+        <v>58189.47949994059</v>
       </c>
     </row>
     <row r="5">
@@ -833,10 +833,10 @@
         <v>23859</v>
       </c>
       <c r="I5" t="n">
-        <v>17.12629865786187</v>
+        <v>17.12629865786188</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3307114046138761</v>
+        <v>0.330711404613876</v>
       </c>
       <c r="K5" t="n">
         <v>1.398059339158471</v>
@@ -858,7 +858,7 @@
         <v>0.7818656297002208</v>
       </c>
       <c r="R5" t="n">
-        <v>0.422881190011312</v>
+        <v>0.4228811900113119</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -874,7 +874,7 @@
         <v>5.566666666666666</v>
       </c>
       <c r="Z5" t="n">
-        <v>53222.18275336444</v>
+        <v>53222.18275336442</v>
       </c>
     </row>
     <row r="6">
@@ -912,7 +912,7 @@
         <v>17.06146751190997</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3314974084739918</v>
+        <v>0.3314974084739917</v>
       </c>
       <c r="K6" t="n">
         <v>1.445998550617744</v>
@@ -936,7 +936,7 @@
         <v>0.7679023275231903</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4317085313765291</v>
+        <v>0.431708531376529</v>
       </c>
       <c r="S6" t="n">
         <v>0.5407899383500721</v>
@@ -948,7 +948,7 @@
         <v>0.01505404521353303</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02921086162158479</v>
+        <v>0.02921086162158478</v>
       </c>
       <c r="W6" t="n">
         <v>261</v>
@@ -993,10 +993,10 @@
         <v>51050</v>
       </c>
       <c r="I7" t="n">
-        <v>17.59993171711697</v>
+        <v>17.59993171711698</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3213320708112211</v>
+        <v>0.3213320708112209</v>
       </c>
       <c r="K7" t="n">
         <v>1.601777045565985</v>
@@ -1013,10 +1013,10 @@
         <v>44.83</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6929090173696568</v>
+        <v>0.6929090173696569</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4639288993826977</v>
+        <v>0.4639288993826975</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1032,7 +1032,7 @@
         <v>4.366666666666666</v>
       </c>
       <c r="Z7" t="n">
-        <v>157238.563120375</v>
+        <v>157238.5631203749</v>
       </c>
     </row>
     <row r="8">
@@ -1070,7 +1070,7 @@
         <v>17.29617641863968</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3272387567273355</v>
+        <v>0.3272387567273354</v>
       </c>
       <c r="K8" t="n">
         <v>1.727052852505587</v>
@@ -1137,10 +1137,10 @@
         <v>61090</v>
       </c>
       <c r="I9" t="n">
-        <v>16.79256880289362</v>
+        <v>16.79256880289363</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3368090181855647</v>
+        <v>0.3368090181855646</v>
       </c>
       <c r="K9" t="n">
         <v>1.4459</v>
@@ -1205,10 +1205,10 @@
         <v>23859</v>
       </c>
       <c r="I10" t="n">
-        <v>16.78368909556014</v>
+        <v>16.78368909556015</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3369711685077701</v>
+        <v>0.33697116850777</v>
       </c>
       <c r="K10" t="n">
         <v>1.357753742369032</v>
@@ -1229,16 +1229,16 @@
         <v>35.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7820309149891691</v>
+        <v>0.7820309149891692</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4309353825998094</v>
+        <v>0.4309353825998092</v>
       </c>
       <c r="S10" t="n">
         <v>0.5256380337272604</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03953058041752208</v>
+        <v>0.03953058041752207</v>
       </c>
       <c r="U10" t="n">
         <v>0.01049902739517181</v>
@@ -1256,7 +1256,7 @@
         <v>5.719074074074074</v>
       </c>
       <c r="Z10" t="n">
-        <v>58881.68078132618</v>
+        <v>58881.68078132617</v>
       </c>
     </row>
     <row r="11">
@@ -1291,10 +1291,10 @@
         <v>23725</v>
       </c>
       <c r="I11" t="n">
-        <v>14.70307341442506</v>
+        <v>14.70307341442507</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3847071597161745</v>
+        <v>0.3847071597161743</v>
       </c>
       <c r="K11" t="n">
         <v>0.8913640923736511</v>
@@ -1313,10 +1313,10 @@
         <v>35.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8157447946259122</v>
+        <v>0.8157447946259123</v>
       </c>
       <c r="R11" t="n">
-        <v>0.471585611643779</v>
+        <v>0.4715856116437788</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1332,7 +1332,7 @@
         <v>11.62518188580831</v>
       </c>
       <c r="Z11" t="n">
-        <v>66644.42727505849</v>
+        <v>66644.42727505846</v>
       </c>
     </row>
     <row r="12">
@@ -1370,7 +1370,7 @@
         <v>14.96467324159407</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3779781871295746</v>
+        <v>0.3779781871295745</v>
       </c>
       <c r="K12" t="n">
         <v>0.8462065407310719</v>
@@ -1400,13 +1400,13 @@
         <v>0.6751747691526191</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03685852419268531</v>
+        <v>0.0368585241926853</v>
       </c>
       <c r="U12" t="n">
         <v>0.01732239406410658</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01953613012857874</v>
+        <v>0.01953613012857873</v>
       </c>
       <c r="W12" t="n">
         <v>191</v>
@@ -1418,7 +1418,7 @@
         <v>10.96088452380952</v>
       </c>
       <c r="Z12" t="n">
-        <v>62653.34724014053</v>
+        <v>62653.34724014051</v>
       </c>
     </row>
     <row r="13">
@@ -1453,10 +1453,10 @@
         <v>23700</v>
       </c>
       <c r="I13" t="n">
-        <v>17.4681003679791</v>
+        <v>17.46810036797911</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3237674736889553</v>
+        <v>0.3237674736889551</v>
       </c>
       <c r="K13" t="n">
         <v>1.10484603787207</v>
@@ -1477,22 +1477,22 @@
         <v>35.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7684932315555086</v>
+        <v>0.7684932315555087</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4213803942757023</v>
+        <v>0.4213803942757021</v>
       </c>
       <c r="S13" t="n">
         <v>0.6509550623209971</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04073603532215879</v>
+        <v>0.04073603532215878</v>
       </c>
       <c r="U13" t="n">
         <v>0.01610191472622672</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02463412059593207</v>
+        <v>0.02463412059593206</v>
       </c>
       <c r="W13" t="n">
         <v>196</v>
@@ -1504,7 +1504,7 @@
         <v>5.427586206896552</v>
       </c>
       <c r="Z13" t="n">
-        <v>63904.1570481465</v>
+        <v>63904.15704814646</v>
       </c>
     </row>
     <row r="14">
@@ -1539,10 +1539,10 @@
         <v>97530</v>
       </c>
       <c r="I14" t="n">
-        <v>17.06347192741687</v>
+        <v>17.06347192741688</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3314411625115518</v>
+        <v>0.3314411625115516</v>
       </c>
       <c r="K14" t="n">
         <v>1.40477492852807</v>
@@ -1566,19 +1566,19 @@
         <v>0.7652194894427563</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4331491048656753</v>
+        <v>0.4331491048656751</v>
       </c>
       <c r="S14" t="n">
         <v>0.5703063572795277</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02983049032437017</v>
+        <v>0.02983049032437016</v>
       </c>
       <c r="U14" t="n">
         <v>0.01286975748820448</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01696073283616569</v>
+        <v>0.01696073283616568</v>
       </c>
       <c r="W14" t="n">
         <v>265</v>
@@ -1628,7 +1628,7 @@
         <v>16.98916597013821</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3329032171369345</v>
+        <v>0.3329032171369344</v>
       </c>
       <c r="K15" t="n">
         <v>1.229479581294727</v>
@@ -1649,22 +1649,22 @@
         <v>60.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7802536469189285</v>
+        <v>0.7802536469189286</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4266681792075788</v>
+        <v>0.4266681792075787</v>
       </c>
       <c r="S15" t="n">
         <v>0.5608796097445846</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03023098118544442</v>
+        <v>0.03023098118544441</v>
       </c>
       <c r="U15" t="n">
         <v>0.01244781833910668</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01778316284633774</v>
+        <v>0.01778316284633773</v>
       </c>
       <c r="W15" t="n">
         <v>292</v>
@@ -1676,7 +1676,7 @@
         <v>5.050909090909091</v>
       </c>
       <c r="Z15" t="n">
-        <v>127636.338025989</v>
+        <v>127636.3380259889</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         <v>15.06830812606609</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3753240765649378</v>
+        <v>0.3753240765649376</v>
       </c>
       <c r="K17" t="n">
         <v>1.139953161890594</v>
@@ -1773,7 +1773,7 @@
         <v>323.6363636363636</v>
       </c>
       <c r="M17" t="n">
-        <v>20.63667800776629</v>
+        <v>20.6366780077663</v>
       </c>
       <c r="N17" t="n">
         <v>9.464023702031604</v>
@@ -1788,19 +1788,19 @@
         <v>0.8172613556825146</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4592499122922808</v>
+        <v>0.4592499122922804</v>
       </c>
       <c r="S17" t="n">
         <v>0.5384931625607633</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02609499147407053</v>
+        <v>0.02609499147407052</v>
       </c>
       <c r="U17" t="n">
         <v>0.01219115091854304</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01390384055552749</v>
+        <v>0.01390384055552748</v>
       </c>
       <c r="W17" t="n">
         <v>304</v>
@@ -1812,7 +1812,7 @@
         <v>9.151666666666667</v>
       </c>
       <c r="Z17" t="n">
-        <v>145592.1614376467</v>
+        <v>145592.1614376465</v>
       </c>
     </row>
     <row r="18">
@@ -1850,7 +1850,7 @@
         <v>17.43840732807625</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3243236053677547</v>
+        <v>0.3243236053677546</v>
       </c>
       <c r="K18" t="n">
         <v>1.789791513631841</v>
@@ -1867,10 +1867,10 @@
         <v>28.45</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7336925079052894</v>
+        <v>0.7336925079052895</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4420536703364697</v>
+        <v>0.4420536703364695</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1886,7 +1886,7 @@
         <v>4.605</v>
       </c>
       <c r="Z18" t="n">
-        <v>56746.0021118581</v>
+        <v>56746.00211185809</v>
       </c>
     </row>
     <row r="19">
@@ -1915,10 +1915,10 @@
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>22.4869707120729</v>
+        <v>22.48697071207291</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2519712186447382</v>
+        <v>0.2519712186447381</v>
       </c>
       <c r="K19" t="n">
         <v>2.491201944623691</v>
@@ -1952,7 +1952,7 @@
         <v>1.153636363636364</v>
       </c>
       <c r="Z19" t="n">
-        <v>69462.84555388209</v>
+        <v>69462.84555388207</v>
       </c>
     </row>
     <row r="20">
@@ -1987,10 +1987,10 @@
         <v>26024</v>
       </c>
       <c r="I20" t="n">
-        <v>17.49680933025547</v>
+        <v>17.49680933025548</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3232650946410691</v>
+        <v>0.323265094641069</v>
       </c>
       <c r="K20" t="n">
         <v>1.275189262798983</v>
@@ -2014,19 +2014,19 @@
         <v>0.7672284054559056</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4213590631018348</v>
+        <v>0.4213590631018346</v>
       </c>
       <c r="S20" t="n">
         <v>0.4792889880898488</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03085124374101027</v>
+        <v>0.03085124374101026</v>
       </c>
       <c r="U20" t="n">
         <v>0.008890981115314956</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02196026262569532</v>
+        <v>0.02196026262569531</v>
       </c>
       <c r="W20" t="n">
         <v>125</v>
@@ -2038,7 +2038,7 @@
         <v>5.227987421383648</v>
       </c>
       <c r="Z20" t="n">
-        <v>52735.91179498754</v>
+        <v>52735.91179498752</v>
       </c>
     </row>
     <row r="21">
@@ -2073,10 +2073,10 @@
         <v>90301</v>
       </c>
       <c r="I21" t="n">
-        <v>21.3258022372695</v>
+        <v>21.32580223726951</v>
       </c>
       <c r="J21" t="n">
-        <v>0.265184896645752</v>
+        <v>0.2651848966457518</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
@@ -2100,13 +2100,13 @@
         <v>0.4261428126703143</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03863450676709624</v>
+        <v>0.03863450676709623</v>
       </c>
       <c r="U21" t="n">
         <v>0.01036334135443588</v>
       </c>
       <c r="V21" t="n">
-        <v>0.02827116541266036</v>
+        <v>0.02827116541266034</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
@@ -2227,10 +2227,10 @@
         <v>20100</v>
       </c>
       <c r="I23" t="n">
-        <v>18.00126385619849</v>
+        <v>18.0012638561985</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3141610114030782</v>
+        <v>0.314161011403078</v>
       </c>
       <c r="K23" t="n">
         <v>1.485729952148732</v>
@@ -2252,7 +2252,7 @@
         <v>0.7561408830443964</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4154797923940739</v>
+        <v>0.4154797923940737</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -2268,7 +2268,7 @@
         <v>5.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>53907.19238070866</v>
+        <v>53907.19238070862</v>
       </c>
     </row>
     <row r="24">
@@ -2306,7 +2306,7 @@
         <v>17.33353107822624</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3263326220419078</v>
+        <v>0.3263326220419077</v>
       </c>
       <c r="K24" t="n">
         <v>1.698569474237269</v>
@@ -2327,22 +2327,22 @@
         <v>35.02222222222222</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7618193641857841</v>
+        <v>0.7618193641857842</v>
       </c>
       <c r="R24" t="n">
-        <v>0.428364075910884</v>
+        <v>0.4283640759108839</v>
       </c>
       <c r="S24" t="n">
         <v>0.4311057075475181</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03680887107709471</v>
+        <v>0.03680887107709469</v>
       </c>
       <c r="U24" t="n">
         <v>0.007451031201009908</v>
       </c>
       <c r="V24" t="n">
-        <v>0.02935783987608479</v>
+        <v>0.02935783987608478</v>
       </c>
       <c r="W24" t="n">
         <v>113</v>
@@ -2390,7 +2390,7 @@
         <v>17.09399611096489</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3309594651029379</v>
+        <v>0.3309594651029378</v>
       </c>
       <c r="K25" t="n">
         <v>1.609267822496967</v>
@@ -2407,10 +2407,10 @@
         <v>47.57</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7916738670820095</v>
+        <v>0.7916738670820096</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4180235528449732</v>
+        <v>0.418023552844973</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>15.24564965479821</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3709866079703445</v>
+        <v>0.3709866079703444</v>
       </c>
       <c r="K26" t="n">
         <v>1.256752661572447</v>
@@ -2484,7 +2484,7 @@
         <v>0.8329779853683159</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4453756348857719</v>
+        <v>0.4453756348857718</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2533,10 +2533,10 @@
         <v>126356</v>
       </c>
       <c r="I27" t="n">
-        <v>15.36201678228015</v>
+        <v>15.36201678228016</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3681711545203625</v>
+        <v>0.3681711545203624</v>
       </c>
       <c r="K27" t="n">
         <v>1.152019941095649</v>
@@ -2545,7 +2545,7 @@
         <v>306.7857142857143</v>
       </c>
       <c r="M27" t="n">
-        <v>20.33329942796322</v>
+        <v>20.33329942796323</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2556,7 +2556,7 @@
         <v>0.8248244438340584</v>
       </c>
       <c r="R27" t="n">
-        <v>0.4463647886726108</v>
+        <v>0.4463647886726107</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2642,7 +2642,7 @@
         <v>1.045</v>
       </c>
       <c r="Z28" t="n">
-        <v>59227.28086090866</v>
+        <v>59227.28086090864</v>
       </c>
     </row>
     <row r="29">
@@ -2677,10 +2677,10 @@
         <v>26024</v>
       </c>
       <c r="I29" t="n">
-        <v>17.72499222979877</v>
+        <v>17.72499222979878</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3190913406792529</v>
+        <v>0.3190913406792528</v>
       </c>
       <c r="K29" t="n">
         <v>1.119767569977147</v>
@@ -2689,7 +2689,7 @@
         <v>217.6984126984127</v>
       </c>
       <c r="M29" t="n">
-        <v>15.64430077370058</v>
+        <v>15.64430077370059</v>
       </c>
       <c r="N29" t="n">
         <v>10.28028972712681</v>
@@ -2701,22 +2701,22 @@
         <v>35.79</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.761018288428509</v>
+        <v>0.7610182884285092</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4193087152203254</v>
+        <v>0.4193087152203251</v>
       </c>
       <c r="S29" t="n">
         <v>0.5404022118139264</v>
       </c>
       <c r="T29" t="n">
-        <v>0.03454680351546196</v>
+        <v>0.03454680351546194</v>
       </c>
       <c r="U29" t="n">
         <v>0.01130287752210999</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02324392599335197</v>
+        <v>0.02324392599335195</v>
       </c>
       <c r="W29" t="n">
         <v>163</v>
@@ -2728,7 +2728,7 @@
         <v>5.132291666666666</v>
       </c>
       <c r="Z29" t="n">
-        <v>54584.23347610084</v>
+        <v>54584.23347610081</v>
       </c>
     </row>
     <row r="30">
@@ -2766,7 +2766,7 @@
         <v>17.71642473670745</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3192487225991766</v>
+        <v>0.3192487225991764</v>
       </c>
       <c r="K30" t="n">
         <v>1.044394367241605</v>
@@ -2775,7 +2775,7 @@
         <v>224.8306878306878</v>
       </c>
       <c r="M30" t="n">
-        <v>15.63673899668767</v>
+        <v>15.63673899668768</v>
       </c>
       <c r="N30" t="n">
         <v>10.28028972712681</v>
@@ -2787,22 +2787,22 @@
         <v>35.79</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7286528646143199</v>
+        <v>0.7286528646143201</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4381534170466246</v>
+        <v>0.4381534170466243</v>
       </c>
       <c r="S30" t="n">
         <v>0.5404022118139264</v>
       </c>
       <c r="T30" t="n">
-        <v>0.03456384265620741</v>
+        <v>0.03456384265620739</v>
       </c>
       <c r="U30" t="n">
         <v>0.01130287752210999</v>
       </c>
       <c r="V30" t="n">
-        <v>0.02326096513409742</v>
+        <v>0.0232609651340974</v>
       </c>
       <c r="W30" t="n">
         <v>175</v>
@@ -2814,7 +2814,7 @@
         <v>5.144374999999999</v>
       </c>
       <c r="Z30" t="n">
-        <v>64729.8892720201</v>
+        <v>64729.88927202008</v>
       </c>
     </row>
     <row r="31">
@@ -2849,10 +2849,10 @@
         <v>26024</v>
       </c>
       <c r="I31" t="n">
-        <v>17.73490260050415</v>
+        <v>17.73490260050416</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3189133396107299</v>
+        <v>0.3189133396107298</v>
       </c>
       <c r="K31" t="n">
         <v>1.005997360734154</v>
@@ -2861,7 +2861,7 @@
         <v>203.0772727272727</v>
       </c>
       <c r="M31" t="n">
-        <v>13.16126706340616</v>
+        <v>13.16126706340617</v>
       </c>
       <c r="N31" t="n">
         <v>10.28028972712681</v>
@@ -2873,22 +2873,22 @@
         <v>35.79</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.7590907840056417</v>
+        <v>0.7590907840056418</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4201392042248431</v>
+        <v>0.4201392042248429</v>
       </c>
       <c r="S31" t="n">
         <v>0.582281832132457</v>
       </c>
       <c r="T31" t="n">
-        <v>0.04424690196291614</v>
+        <v>0.04424690196291611</v>
       </c>
       <c r="U31" t="n">
         <v>0.01312264153321329</v>
       </c>
       <c r="V31" t="n">
-        <v>0.03112426042970285</v>
+        <v>0.03112426042970283</v>
       </c>
       <c r="W31" t="n">
         <v>179</v>
@@ -2900,7 +2900,7 @@
         <v>5.1359375</v>
       </c>
       <c r="Z31" t="n">
-        <v>55164.22753360885</v>
+        <v>55164.22753360882</v>
       </c>
     </row>
     <row r="32">
@@ -2938,7 +2938,7 @@
         <v>17.41408489474545</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3247573528569764</v>
+        <v>0.3247573528569763</v>
       </c>
       <c r="K32" t="n">
         <v>1.639907945335394</v>
@@ -2962,19 +2962,19 @@
         <v>0.7844941178526791</v>
       </c>
       <c r="R32" t="n">
-        <v>0.4139717816301645</v>
+        <v>0.4139717816301644</v>
       </c>
       <c r="S32" t="n">
         <v>0.5559726764356511</v>
       </c>
       <c r="T32" t="n">
-        <v>0.03649442669593517</v>
+        <v>0.03649442669593516</v>
       </c>
       <c r="U32" t="n">
         <v>0.01769275313653476</v>
       </c>
       <c r="V32" t="n">
-        <v>0.01880167355940041</v>
+        <v>0.0188016735594004</v>
       </c>
       <c r="W32" t="n">
         <v>405</v>
@@ -2986,7 +2986,7 @@
         <v>5.01875</v>
       </c>
       <c r="Z32" t="n">
-        <v>234712.4624917689</v>
+        <v>234712.4624917688</v>
       </c>
     </row>
     <row r="33">
@@ -3019,10 +3019,10 @@
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>17.50092047553409</v>
+        <v>17.5009204755341</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3231644522448556</v>
+        <v>0.3231644522448554</v>
       </c>
       <c r="K33" t="n">
         <v>2.226865704690404</v>
@@ -3044,7 +3044,7 @@
         <v>0.7903112100875538</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4090470358271433</v>
+        <v>0.4090470358271431</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -3060,7 +3060,7 @@
         <v>4.6275</v>
       </c>
       <c r="Z33" t="n">
-        <v>199548.9932938909</v>
+        <v>199548.9932938908</v>
       </c>
     </row>
     <row r="34">
@@ -3165,10 +3165,10 @@
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>17.06938157570028</v>
+        <v>17.06938157570029</v>
       </c>
       <c r="J35" t="n">
-        <v>0.331311397375335</v>
+        <v>0.3313113973753349</v>
       </c>
       <c r="K35" t="n">
         <v>1.335323623930043</v>
@@ -3177,7 +3177,7 @@
         <v>275.6977777777777</v>
       </c>
       <c r="M35" t="n">
-        <v>17.44975671545913</v>
+        <v>17.44975671545915</v>
       </c>
       <c r="N35" t="n">
         <v>17.21442922374429</v>
@@ -3192,19 +3192,19 @@
         <v>0.7771188768530045</v>
       </c>
       <c r="R35" t="n">
-        <v>0.4263329681515433</v>
+        <v>0.4263329681515431</v>
       </c>
       <c r="S35" t="n">
         <v>0.7942466806223587</v>
       </c>
       <c r="T35" t="n">
-        <v>0.04551620366825616</v>
+        <v>0.04551620366825614</v>
       </c>
       <c r="U35" t="n">
         <v>0.01458069850331794</v>
       </c>
       <c r="V35" t="n">
-        <v>0.03093550516493822</v>
+        <v>0.03093550516493819</v>
       </c>
       <c r="W35" t="n">
         <v>249</v>
@@ -3216,7 +3216,7 @@
         <v>5.1</v>
       </c>
       <c r="Z35" t="n">
-        <v>115566.7293916298</v>
+        <v>115566.7293916297</v>
       </c>
     </row>
     <row r="36">
@@ -3249,10 +3249,10 @@
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>16.81481451040719</v>
+        <v>16.8148145104072</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3364433769825322</v>
+        <v>0.3364433769825321</v>
       </c>
       <c r="K36" t="n">
         <v>1.45127382838302</v>
@@ -3261,7 +3261,7 @@
         <v>289.2454545454545</v>
       </c>
       <c r="M36" t="n">
-        <v>20.29266290898792</v>
+        <v>20.29266290898793</v>
       </c>
       <c r="N36" t="n">
         <v>9.242461430575036</v>
@@ -3276,19 +3276,19 @@
         <v>0.8002115638803728</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4205173777927553</v>
+        <v>0.4205173777927551</v>
       </c>
       <c r="S36" t="n">
         <v>0.7002416387129491</v>
       </c>
       <c r="T36" t="n">
-        <v>0.03451904657142538</v>
+        <v>0.03451904657142537</v>
       </c>
       <c r="U36" t="n">
         <v>0.02119047121563732</v>
       </c>
       <c r="V36" t="n">
-        <v>0.01332857535578807</v>
+        <v>0.01332857535578806</v>
       </c>
       <c r="W36" t="n">
         <v>329</v>
@@ -3516,7 +3516,7 @@
         <v>1.026923076923077</v>
       </c>
       <c r="Z39" t="n">
-        <v>73447.48894635512</v>
+        <v>73447.48894635511</v>
       </c>
     </row>
     <row r="40">
@@ -3554,7 +3554,7 @@
         <v>15.7290159675477</v>
       </c>
       <c r="J40" t="n">
-        <v>0.359547726986659</v>
+        <v>0.3595477269866589</v>
       </c>
       <c r="K40" t="n">
         <v>0.8953661112939827</v>
@@ -3563,7 +3563,7 @@
         <v>214.5952380952381</v>
       </c>
       <c r="M40" t="n">
-        <v>18.86798492370013</v>
+        <v>18.86798492370014</v>
       </c>
       <c r="N40" t="n">
         <v>10.15942047244095</v>
@@ -3578,19 +3578,19 @@
         <v>0.8014892422095463</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4486005365736526</v>
+        <v>0.4486005365736525</v>
       </c>
       <c r="S40" t="n">
         <v>0.5545384462092253</v>
       </c>
       <c r="T40" t="n">
-        <v>0.02939071005607644</v>
+        <v>0.02939071005607643</v>
       </c>
       <c r="U40" t="n">
         <v>0.01204355021381798</v>
       </c>
       <c r="V40" t="n">
-        <v>0.01734715984225846</v>
+        <v>0.01734715984225845</v>
       </c>
       <c r="W40" t="n">
         <v>171</v>
@@ -3602,7 +3602,7 @@
         <v>8.435416666666667</v>
       </c>
       <c r="Z40" t="n">
-        <v>55505.42800502713</v>
+        <v>55505.4280050271</v>
       </c>
     </row>
     <row r="41">
@@ -3640,14 +3640,14 @@
         <v>15.75412077408917</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3589721900204884</v>
+        <v>0.3589721900204883</v>
       </c>
       <c r="K41" t="n">
         <v>0.8889188737585035</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>18.75509705334182</v>
+        <v>18.75509705334183</v>
       </c>
       <c r="N41" t="n">
         <v>10.15942047244095</v>
@@ -3662,7 +3662,7 @@
         <v>0.8192808601885971</v>
       </c>
       <c r="R41" t="n">
-        <v>0.4381554003371571</v>
+        <v>0.438155400337157</v>
       </c>
       <c r="S41" t="n">
         <v>0.5925830706747321</v>
@@ -3674,7 +3674,7 @@
         <v>0.01375275434122439</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01784314606759582</v>
+        <v>0.01784314606759581</v>
       </c>
       <c r="W41" t="n">
         <v>178</v>
@@ -3686,7 +3686,7 @@
         <v>8.447222222222223</v>
       </c>
       <c r="Z41" t="n">
-        <v>49433.32369637736</v>
+        <v>49433.32369637735</v>
       </c>
     </row>
     <row r="42">
@@ -3733,7 +3733,7 @@
         <v>211.1230769230769</v>
       </c>
       <c r="M42" t="n">
-        <v>12.22462575870084</v>
+        <v>12.22462575870085</v>
       </c>
       <c r="N42" t="n">
         <v>5.988823594024605</v>
@@ -3756,7 +3756,7 @@
         <v>0.01449150566155796</v>
       </c>
       <c r="V42" t="n">
-        <v>0.0237282131256938</v>
+        <v>0.02372821312569379</v>
       </c>
       <c r="W42" t="n">
         <v>109</v>
@@ -3768,7 +3768,7 @@
         <v>1.045</v>
       </c>
       <c r="Z42" t="n">
-        <v>52000.1441749647</v>
+        <v>52000.14417496469</v>
       </c>
     </row>
     <row r="43">
@@ -3803,10 +3803,10 @@
         <v>20100</v>
       </c>
       <c r="I43" t="n">
-        <v>18.01149478558387</v>
+        <v>18.01149478558388</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3139826622719162</v>
+        <v>0.3139826622719161</v>
       </c>
       <c r="K43" t="n">
         <v>1.385801233313683</v>
@@ -3815,7 +3815,7 @@
         <v>184.5505319148936</v>
       </c>
       <c r="M43" t="n">
-        <v>12.41007311177945</v>
+        <v>12.41007311177946</v>
       </c>
       <c r="N43" t="n">
         <v>9.16140597539543</v>
@@ -3827,22 +3827,22 @@
         <v>28.88</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7507617447514432</v>
+        <v>0.7507617447514433</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4182191598730574</v>
+        <v>0.4182191598730572</v>
       </c>
       <c r="S43" t="n">
         <v>0.6368630018171373</v>
       </c>
       <c r="T43" t="n">
-        <v>0.05131838027354877</v>
+        <v>0.05131838027354876</v>
       </c>
       <c r="U43" t="n">
         <v>0.01761530027348244</v>
       </c>
       <c r="V43" t="n">
-        <v>0.03370308000006633</v>
+        <v>0.0337030800000663</v>
       </c>
       <c r="W43" t="n">
         <v>143</v>
@@ -3854,7 +3854,7 @@
         <v>5.1</v>
       </c>
       <c r="Z43" t="n">
-        <v>55491.06311528273</v>
+        <v>55491.06311528271</v>
       </c>
     </row>
     <row r="44">
@@ -3889,10 +3889,10 @@
         <v>194851.4285714286</v>
       </c>
       <c r="I44" t="n">
-        <v>17.49683082336579</v>
+        <v>17.4968308233658</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3232910205483346</v>
+        <v>0.3232910205483345</v>
       </c>
       <c r="K44" t="n">
         <v>1.766507941133399</v>
@@ -3913,22 +3913,22 @@
         <v>59.60000000000001</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.7524350999958356</v>
+        <v>0.7524350999958357</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4298215664045603</v>
+        <v>0.42982156640456</v>
       </c>
       <c r="S44" t="n">
         <v>0.601358201042643</v>
       </c>
       <c r="T44" t="n">
-        <v>0.04882314477410078</v>
+        <v>0.04882314477410075</v>
       </c>
       <c r="U44" t="n">
         <v>0.02069926845502964</v>
       </c>
       <c r="V44" t="n">
-        <v>0.02812387631907114</v>
+        <v>0.02812387631907112</v>
       </c>
       <c r="W44" t="n">
         <v>394</v>
@@ -3940,7 +3940,7 @@
         <v>4.620535714285714</v>
       </c>
       <c r="Z44" t="n">
-        <v>247902.5795286623</v>
+        <v>247902.5795286622</v>
       </c>
     </row>
     <row r="45">
@@ -3976,7 +3976,7 @@
         <v>17.36719498633941</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3257661737127919</v>
+        <v>0.3257661737127918</v>
       </c>
       <c r="K45" t="n">
         <v>1.562825663634453</v>
@@ -3985,7 +3985,7 @@
         <v>329.3181818181818</v>
       </c>
       <c r="M45" t="n">
-        <v>16.94624969050644</v>
+        <v>16.94624969050645</v>
       </c>
       <c r="N45" t="n">
         <v>7.813733686105675</v>
@@ -4000,13 +4000,13 @@
         <v>0.7434798070402058</v>
       </c>
       <c r="R45" t="n">
-        <v>0.4381385303883507</v>
+        <v>0.4381385303883506</v>
       </c>
       <c r="S45" t="n">
         <v>0.6459873002395184</v>
       </c>
       <c r="T45" t="n">
-        <v>0.03813908253154627</v>
+        <v>0.03813908253154626</v>
       </c>
       <c r="U45" t="n">
         <v>0.02129728718926171</v>
@@ -4024,7 +4024,7 @@
         <v>4.54</v>
       </c>
       <c r="Z45" t="n">
-        <v>254685.3838219231</v>
+        <v>254685.383821923</v>
       </c>
     </row>
     <row r="46">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>17.58253515506082</v>
+        <v>17.58253515506083</v>
       </c>
       <c r="J46" t="n">
         <v>0.3219165041227023</v>
@@ -4096,7 +4096,7 @@
         <v>4.7025</v>
       </c>
       <c r="Z46" t="n">
-        <v>73298.21865369655</v>
+        <v>73298.21865369652</v>
       </c>
     </row>
     <row r="47">
@@ -4129,10 +4129,10 @@
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>17.11208018153209</v>
+        <v>17.1120801815321</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3306136802785303</v>
+        <v>0.3306136802785302</v>
       </c>
       <c r="K47" t="n">
         <v>1.402339585121362</v>
@@ -4141,7 +4141,7 @@
         <v>258.5660018993353</v>
       </c>
       <c r="M47" t="n">
-        <v>15.35194683664891</v>
+        <v>15.35194683664892</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -4149,7 +4149,7 @@
         <v>47.57</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.7877758976142176</v>
+        <v>0.7877758976142177</v>
       </c>
       <c r="R47" t="n">
         <v>0.4196711877282212</v>
@@ -4213,7 +4213,7 @@
         <v>322.9280303030303</v>
       </c>
       <c r="M48" t="n">
-        <v>19.67525354469729</v>
+        <v>19.6752535446973</v>
       </c>
       <c r="N48" t="n">
         <v>8.860483870967741</v>
@@ -4228,19 +4228,19 @@
         <v>0.7958647119384074</v>
       </c>
       <c r="R48" t="n">
-        <v>0.4384216332337696</v>
+        <v>0.4384216332337695</v>
       </c>
       <c r="S48" t="n">
         <v>0.6921098003278955</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0352049058171427</v>
+        <v>0.03520490581714269</v>
       </c>
       <c r="U48" t="n">
         <v>0.02155671229422802</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01364819352291468</v>
+        <v>0.01364819352291467</v>
       </c>
       <c r="W48" t="n">
         <v>273</v>
@@ -4377,10 +4377,10 @@
         <v>24.9</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6588406030462127</v>
+        <v>0.6588406030462128</v>
       </c>
       <c r="R50" t="n">
-        <v>0.472998561560815</v>
+        <v>0.4729985615608149</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -4396,7 +4396,7 @@
         <v>5.13</v>
       </c>
       <c r="Z50" t="n">
-        <v>51282.83530622923</v>
+        <v>51282.83530622922</v>
       </c>
     </row>
     <row r="51">
@@ -4431,10 +4431,10 @@
         <v>10989</v>
       </c>
       <c r="I51" t="n">
-        <v>17.97625309347459</v>
+        <v>17.9762530934746</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3145975014713791</v>
+        <v>0.314597501471379</v>
       </c>
       <c r="K51" t="n">
         <v>1.822091431376184</v>
@@ -4456,7 +4456,7 @@
         <v>0.7408030906071222</v>
       </c>
       <c r="R51" t="n">
-        <v>0.4246709708329273</v>
+        <v>0.424670970832927</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
@@ -4472,7 +4472,7 @@
         <v>5.13</v>
       </c>
       <c r="Z51" t="n">
-        <v>34651.48226719588</v>
+        <v>34651.48226719585</v>
       </c>
     </row>
     <row r="52">
@@ -4507,10 +4507,10 @@
         <v>16347.75</v>
       </c>
       <c r="I52" t="n">
-        <v>16.77016917536357</v>
+        <v>16.77016917536358</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3392881252903102</v>
+        <v>0.33928812529031</v>
       </c>
       <c r="K52" t="n">
         <v>1.712372106412916</v>
@@ -4529,10 +4529,10 @@
         <v>30.545</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.7117598908588553</v>
+        <v>0.7117598908588554</v>
       </c>
       <c r="R52" t="n">
-        <v>0.4763098239510975</v>
+        <v>0.4763098239510972</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -4548,7 +4548,7 @@
         <v>7.026875</v>
       </c>
       <c r="Z52" t="n">
-        <v>61088.37579710694</v>
+        <v>61088.37579710691</v>
       </c>
     </row>
     <row r="53">
@@ -4583,10 +4583,10 @@
         <v>8216.799999999999</v>
       </c>
       <c r="I53" t="n">
-        <v>18.16621531661354</v>
+        <v>18.16621531661355</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3113135990720869</v>
+        <v>0.3113135990720868</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
@@ -4622,7 +4622,7 @@
         <v>4.762</v>
       </c>
       <c r="Z53" t="n">
-        <v>49755.49877845949</v>
+        <v>49755.49877845948</v>
       </c>
     </row>
     <row r="54">
@@ -4850,7 +4850,7 @@
         <v>0.6081109382651159</v>
       </c>
       <c r="R57" t="n">
-        <v>0.5103718988149327</v>
+        <v>0.5103718988149326</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -5436,7 +5436,7 @@
         <v>16.99770822716683</v>
       </c>
       <c r="J67" t="n">
-        <v>0.3327206303053079</v>
+        <v>0.3327206303053078</v>
       </c>
       <c r="K67" t="n">
         <v>1.340189934684793</v>
@@ -5453,10 +5453,10 @@
         <v>32.87</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.7458748318947507</v>
+        <v>0.7458748318947509</v>
       </c>
       <c r="R67" t="n">
-        <v>0.4460862698857084</v>
+        <v>0.4460862698857082</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
@@ -5472,7 +5472,7 @@
         <v>4.74</v>
       </c>
       <c r="Z67" t="n">
-        <v>63894.06446530207</v>
+        <v>63894.06446530205</v>
       </c>
     </row>
     <row r="68">
@@ -5647,7 +5647,7 @@
         <v>13979</v>
       </c>
       <c r="I70" t="n">
-        <v>22.88492472710245</v>
+        <v>22.88492472710246</v>
       </c>
       <c r="J70" t="n">
         <v>0.2472409829726473</v>
@@ -5711,7 +5711,7 @@
         <v>144782</v>
       </c>
       <c r="I71" t="n">
-        <v>17.17456583460847</v>
+        <v>17.17456583460849</v>
       </c>
       <c r="J71" t="n">
         <v>0.329294025279972</v>
@@ -5723,7 +5723,7 @@
         <v>317.4756097560976</v>
       </c>
       <c r="M71" t="n">
-        <v>17.18295849059495</v>
+        <v>17.18295849059496</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5746,7 +5746,7 @@
         <v>4.8</v>
       </c>
       <c r="Z71" t="n">
-        <v>160911.0912490309</v>
+        <v>160911.0912490308</v>
       </c>
     </row>
     <row r="72">
